--- a/notebook/dataset/Kutubu-2021.xlsx
+++ b/notebook/dataset/Kutubu-2021.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crude-Assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CrudeCharacterization\notebook\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0953DC0E-6836-4532-A969-6EC442BA36D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A3958-8AF4-44FD-B91F-9E0155646293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{3C8D0313-1FB6-4046-80D4-5676750383C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{3C8D0313-1FB6-4046-80D4-5676750383C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input-Assay" sheetId="2" r:id="rId2"/>
     <sheet name="Distillation" sheetId="3" r:id="rId3"/>
     <sheet name="Conventional_Results" sheetId="4" r:id="rId4"/>
@@ -1547,18 +1547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B77D94-9BD8-48FA-A9B2-CFE990396D68}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>43.695464724943903</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>44.029759546543701</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>43.862612135743802</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>41.828924631145199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1807,12 +1807,12 @@
         <v>2.9587613522747198E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>5.3279891046963304</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>11.8023520905026</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.41357579127001998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.46537819775697098</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>20.0011987565594</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>38.330765380028701</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-0.86620455256545603</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>18.500005204840399</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>28.009138052302902</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>40.0372819615935</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>31.953579986103701</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1924,17 +1924,17 @@
         <v>6.15384076694325</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0.96737479322335895</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.54980022289740405</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>17.4031777150892</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>44.998050212643903</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>57.547544855456103</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>103.64576876928901</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>153.261706352863</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>228.04892967638801</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>377.90437908755803</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>456.58711301964001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>576.78034898518297</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>15.0613457986013</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>40.381770054247497</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>52.829664749527602</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>94.3910616033873</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>144.91788436600299</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>209.211750295423</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>355.08107144888299</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>432.80112831696198</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>566.29727687289505</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2184,9 +2184,9 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1027.7039571395201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0.29342019550909898</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>-1.0120506325013101</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>50.920657400724998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>16.257782147113399</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>87.361136937367903</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>61295164.887427904</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>3666089.34444744</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1051413.72936277</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>8377.2182959140391</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>274.80928160717502</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>2.1038563605574199E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2.30215578554272E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0.467031590465248</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>11.7651350644531</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0.84154254424615704</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>6.3173418839956597</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>3.1885339810067699E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>108.01881061272201</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>83.576865403722294</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>62.605596958362398</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>55.9045261204474</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4016,9 +4016,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>17.4031777150892</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>44.998050212643903</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>57.547544855456103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>30</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>103.64576876928901</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>153.261706352863</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>70</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>228.04892967638801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>377.90437908755803</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>95</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>456.58711301964001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>100</v>
       </c>
@@ -4243,9 +4243,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>1027.7039571395201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0.29342019550909898</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>-1.0120506325013101</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>50.920657400724998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>16.257782147113399</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>87.361136937367903</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>61295164.887427904</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>3666089.34444744</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1051413.72936277</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>8377.2182959140391</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>274.80928160717502</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>2.1038563605574199E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>2.30215578554272E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0.467031590465248</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>11.7651350644531</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0.84154254424615704</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>6.3173418839956597</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>3.1885339810067699E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>108.01881061272201</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>83.576865403722294</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>62.605596958362398</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>55.9045261204474</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -6071,13 +6071,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A8F2B0-7C16-42A8-B519-9F92C283A0A0}">
   <dimension ref="A1:GE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>285</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>286</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>287</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>291</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>297</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>300</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>301</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>302</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>304</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>305</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>306</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>311</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>314</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>315</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>317</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>318</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>319</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>320</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>321</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>324</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>325</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>326</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>327</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>331</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>332</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>333</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>334</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>335</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>336</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>337</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>338</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>339</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>340</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>341</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>342</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>343</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>344</v>
       </c>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>345</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>346</v>
       </c>
@@ -28635,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>347</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>350</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>351</v>
       </c>
@@ -31450,7 +31450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>352</v>
       </c>
@@ -32013,7 +32013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>353</v>
       </c>
@@ -32576,7 +32576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>354</v>
       </c>
@@ -33139,7 +33139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>355</v>
       </c>
@@ -33702,7 +33702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>356</v>
       </c>
@@ -34265,7 +34265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>357</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>358</v>
       </c>
@@ -35391,7 +35391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>359</v>
       </c>
@@ -35954,7 +35954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>360</v>
       </c>
@@ -36517,7 +36517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>361</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>362</v>
       </c>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>363</v>
       </c>
@@ -38206,7 +38206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>364</v>
       </c>
@@ -38769,7 +38769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>365</v>
       </c>
@@ -39332,7 +39332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>366</v>
       </c>
@@ -39895,7 +39895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>367</v>
       </c>
@@ -40317,7 +40317,7 @@
         <v>42353.438386695198</v>
       </c>
     </row>
-    <row r="87" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>368</v>
       </c>
@@ -40739,7 +40739,7 @@
         <v>42114.142479476199</v>
       </c>
     </row>
-    <row r="88" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>369</v>
       </c>
@@ -41161,7 +41161,7 @@
         <v>41880.365740563699</v>
       </c>
     </row>
-    <row r="89" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>370</v>
       </c>
@@ -41583,7 +41583,7 @@
         <v>41652.020020023803</v>
       </c>
     </row>
-    <row r="90" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>371</v>
       </c>
@@ -42005,7 +42005,7 @@
         <v>41429.004550167701</v>
       </c>
     </row>
-    <row r="91" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -42427,7 +42427,7 @@
         <v>41211.209261390497</v>
       </c>
     </row>
-    <row r="92" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>373</v>
       </c>
@@ -42849,7 +42849,7 @@
         <v>40998.517444986799</v>
       </c>
     </row>
-    <row r="93" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>374</v>
       </c>
@@ -43271,7 +43271,7 @@
         <v>40790.807889137002</v>
       </c>
     </row>
-    <row r="94" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>375</v>
       </c>
@@ -43693,7 +43693,7 @@
         <v>40587.956589173496</v>
       </c>
     </row>
-    <row r="95" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>376</v>
       </c>
@@ -44115,7 +44115,7 @@
         <v>40389.838113329599</v>
       </c>
     </row>
-    <row r="96" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>377</v>
       </c>
@@ -44537,7 +44537,7 @@
         <v>40196.326689349298</v>
       </c>
     </row>
-    <row r="97" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>378</v>
       </c>
@@ -44959,7 +44959,7 @@
         <v>40007.297064701903</v>
       </c>
     </row>
-    <row r="98" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>379</v>
       </c>
@@ -45381,7 +45381,7 @@
         <v>39822.625183051103</v>
       </c>
     </row>
-    <row r="99" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>380</v>
       </c>
@@ -45803,7 +45803,7 @@
         <v>39642.188711528099</v>
       </c>
     </row>
-    <row r="100" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>381</v>
       </c>
@@ -46225,7 +46225,7 @@
         <v>39379.213113298603</v>
       </c>
     </row>
-    <row r="101" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>382</v>
       </c>
@@ -46647,7 +46647,7 @@
         <v>39042.3020764959</v>
       </c>
     </row>
-    <row r="102" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>383</v>
       </c>
@@ -47069,7 +47069,7 @@
         <v>38720.2541355988</v>
       </c>
     </row>
-    <row r="103" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>384</v>
       </c>
